--- a/public/temp/residential.xlsx
+++ b/public/temp/residential.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -467,28 +467,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>b390ed00-c25d-11ed-8270-e791d35ffe4d</v>
+        <v>79a27d80-c39c-11ed-b4ac-b1cceb5a1ccd</v>
       </c>
       <c r="B2" t="str">
-        <v>b38972f0-c25d-11ed-b4d9-8b3ff3563fe5</v>
+        <v>799f9750-c39c-11ed-87b2-c510251a55d4</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="F2" t="str">
-        <v>ASHONMAN ESTATE ELECTORAL AREA</v>
+        <v>AGEGE</v>
       </c>
       <c r="G2" t="str">
-        <v>FF-F</v>
+        <v>HU-DGY</v>
       </c>
       <c r="J2" t="str">
-        <v>5.0</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="str">
-        <v>fhhg</v>
+        <v>gogg</v>
       </c>
       <c r="M2" t="str">
         <v/>
@@ -500,36 +500,36 @@
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>44999.49617236111</v>
+        <v>45001.07970381944</v>
       </c>
       <c r="Q2" s="1">
-        <v>44999.49617236111</v>
+        <v>45001.07970381944</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>756c9850-c265-11ed-87c2-fdc9c8956f2a</v>
+        <v>ea9383a0-c341-11ed-968b-857a7ab42622</v>
       </c>
       <c r="B3" t="str">
-        <v>75667dd0-c265-11ed-9ca5-7ff46f0feb10</v>
+        <v>ea89bfa0-c341-11ed-bbbb-6bc8096cb6c1</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>269</v>
+        <v>34</v>
       </c>
       <c r="F3" t="str">
-        <v>ATOMIC</v>
+        <v>ABLEKUMA WEST MUNICIPAL ASSEMBLY</v>
       </c>
       <c r="G3" t="str">
-        <v>GH-A3456786</v>
+        <v>GA-98766789</v>
       </c>
       <c r="J3" t="str">
         <v>5.0</v>
       </c>
       <c r="L3" t="str">
-        <v>KDdffghfgfg</v>
+        <v>jihn</v>
       </c>
       <c r="M3" t="str">
         <v/>
@@ -541,15 +541,138 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>44999.53223387731</v>
+        <v>45001.2624087963</v>
       </c>
       <c r="Q3" s="1">
-        <v>44999.53223387731</v>
+        <v>45001.2624087963</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>99341600-c3c3-11ed-9f80-57d3580debc4</v>
+      </c>
+      <c r="B4" t="str">
+        <v>99159180-c3c3-11ed-af0b-a5b54c270243</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>494</v>
+      </c>
+      <c r="F4" t="str">
+        <v>DAMBA STREET</v>
+      </c>
+      <c r="G4" t="str">
+        <v>JY-RTYU6567</v>
+      </c>
+      <c r="J4" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="L4" t="str">
+        <v>fytyuo guu</v>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>45001.272291215275</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>45001.272291215275</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ce4bdd60-c3c7-11ed-924e-3b8acb5c130e</v>
+      </c>
+      <c r="B5" t="str">
+        <v>ce4af300-c3c7-11ed-ba68-2301f30aed0c</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>313</v>
+      </c>
+      <c r="F5" t="str">
+        <v>AYIGBE TOWN</v>
+      </c>
+      <c r="G5" t="str">
+        <v>GA-43465555</v>
+      </c>
+      <c r="J5" t="str">
+        <v>5.0</v>
+      </c>
+      <c r="L5" t="str">
+        <v>jgrthj hgyu</v>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>45001.29193501158</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>45001.29193501158</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>a55f3150-c3cb-11ed-be51-e132bd71bc2e</v>
+      </c>
+      <c r="B6" t="str">
+        <v>a55e9510-c3cb-11ed-b5a5-216e2604ea8c</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>313</v>
+      </c>
+      <c r="F6" t="str">
+        <v>AYIGBE TOWN</v>
+      </c>
+      <c r="G6" t="str">
+        <v>GA-43465555</v>
+      </c>
+      <c r="J6" t="str">
+        <v>5.0</v>
+      </c>
+      <c r="L6" t="str">
+        <v>fugfy</v>
+      </c>
+      <c r="M6" t="str">
+        <v>0544554455</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>45001.318500104164</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>45001.318500104164</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T6"/>
   </ignoredErrors>
 </worksheet>
 </file>